--- a/file/TGE-423-TaitungBandB.xlsx
+++ b/file/TGE-423-TaitungBandB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A12216-E25F-164E-B3B3-04B8478C03BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1894DD76-1A7E-EC49-8C98-31C7B77160BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="6280" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="3400" yWindow="2280" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花蓮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
@@ -106,15 +102,200 @@
   <si>
     <t>Star</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東寂里雅嵐民宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣成功鎮石傘路77之40號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jiliyalan.idv.tw/index.php?fbclid=IwAR3gmLUU6PyzJIQZNOwwDOva5FscU-nlLJVjVYmXqX64bLIL8kBmYSKTucI</t>
+  </si>
+  <si>
+    <t>台東石一方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東河鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣東河鄉都蘭村18鄰都蘭59之5號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/stoneparty595</t>
+  </si>
+  <si>
+    <t>0937-789 389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0910-321 621</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東原來宿B&amp;B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>池上鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣池上鄉中華路59號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://originalhouse.mystrikingly.com/</t>
+  </si>
+  <si>
+    <t>0928-814 320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東太平528民宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卑南鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.taiping528.tw/</t>
+  </si>
+  <si>
+    <t>台東縣卑南鄉太平路528號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0965-281 528</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東門廷若室民宿-河堤左岸館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣台東市開封街818巷2號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tiintinn-river.mydirectstay.com/tw/index.html</t>
+  </si>
+  <si>
+    <t>0928-688 089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東布客森林民宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣台東市中興路二段43號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://booksnwoods.com/en/</t>
+  </si>
+  <si>
+    <t>台東小森旅宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣台東市安和路102巷100號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://l.facebook.com/l.php?u=http%3A%2F%2Fbit.ly%2F2PqTiBw%3Ffbclid%3DIwAR0AFbZDfL-b1Y3WupuunWQtCzpY_kIeOXejfXa_thlkBfgj74n9VitkFlQ&amp;h=AT3oeC_xTM9iPKFRP4zheU8ACIOzajKrasuTW10JjqaT4UrgSPKPwZx_AL5CKjXzj8Wcl6iI6BuyBJa-H67O3qhQHXOqvUQ6QMNAtCLvudtCERKrRi-5EvnW9iFDAEp6TD4dyb8ToCc</t>
+  </si>
+  <si>
+    <t>台東実舍台東</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣台東市安和路102巷42號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.genuinn.tw/</t>
+  </si>
+  <si>
+    <t>0900142929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0902-033 181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0910-950 922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東香香森林民宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣台東市開封街632巷56號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://l.facebook.com/l.php?u=https%3A%2F%2Fbooking.owlting.com%2Fa76b2b4b-4aae-4484-b71a-1e11d8f7f15e%3Ffbclid%3DIwAR1Wvf852UZLwCG7POeiUKQs4SIH1JJ4VvxZxMinIYKAGMvsGuWPv7wqqj4&amp;h=AT2y72OT0oFfsBzgpNk8P9X4RJLmir2I-gQ03hntt_l8Dy34KqlSCW7t2cr1HGyVDEpl9qPVpdbHfteh4PVj-27HbgFFK0xFLLsa9rYBbfV7CWd8jFul2KTuZFR8AehjvIlpWx4ikGo</t>
+  </si>
+  <si>
+    <t>0972 182 827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-4231-TaitungBandB-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-4231-TaitungBandB-02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-4231-TaitungBandB-03.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4231-TaitungBandB-04.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4231-TaitungBandB-05.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4231-TaitungBandB-06.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4231-TaitungBandB-07.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4231-TaitungBandB-08.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-4231-TaitungBandB-09.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="&quot;NT$&quot;#,##0_);\(&quot;NT$&quot;#,##0\)"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -185,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,7 +690,7 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -519,7 +700,7 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="34.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" customWidth="1"/>
     <col min="9" max="9" width="37" customWidth="1"/>
@@ -541,9 +722,9 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -559,107 +740,271 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E2" s="5"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
+      <c r="F2" s="6">
+        <v>2300</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6">
+        <v>4300</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="16">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
+      <c r="F4" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2400</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="32">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6">
+        <v>2300</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:10" ht="16">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="I7" s="2"/>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6">
+        <v>1100</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:10" ht="16">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="I8" s="2"/>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:10" ht="16">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="I10" s="2"/>
+      <c r="F10" s="6">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/file/TGE-423-TaitungBandB.xlsx
+++ b/file/TGE-423-TaitungBandB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1894DD76-1A7E-EC49-8C98-31C7B77160BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F93D84-1EF8-A245-9C0D-A021F5B45E9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="2280" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="18460" yWindow="12120" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,34 @@
   </si>
   <si>
     <t>fig/TGE-4231-TaitungBandB-09.jpg</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東MEZI 沐 HOUSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長儐鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣長濱鄉馬稼海段5-20號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-983-2374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/mezihouse520/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-4231-TaitungBandB-10.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -684,13 +712,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1006,8 +1034,40 @@
         <v>59</v>
       </c>
     </row>
+    <row r="11" spans="1:10" ht="16">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3200</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J11" r:id="rId1" xr:uid="{D6A3745E-72FA-4E4E-9302-6E5C8898681E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>